--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2135798.021192415</v>
+        <v>-2138370.888571763</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14905771.99315854</v>
+        <v>14905771.99315855</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>340.7629559825168</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>323.3020060900437</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>339.959484391298</v>
+        <v>53.43261675538853</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>364.9051600607476</v>
       </c>
       <c r="G11" t="n">
         <v>369.899849162663</v>
       </c>
       <c r="H11" t="n">
-        <v>262.3559190752192</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>209.100207013152</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>307.2700830364492</v>
       </c>
       <c r="X11" t="n">
-        <v>270.9871284090279</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>344.2670529750898</v>
@@ -1458,13 +1458,13 @@
         <v>115.6741947744371</v>
       </c>
       <c r="F12" t="n">
-        <v>103.0983267124201</v>
+        <v>103.09832671242</v>
       </c>
       <c r="G12" t="n">
-        <v>93.53634816607142</v>
+        <v>93.53634816607139</v>
       </c>
       <c r="H12" t="n">
-        <v>52.52992758089131</v>
+        <v>52.52992758089128</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>95.60412821233538</v>
+        <v>95.60412821233535</v>
       </c>
       <c r="T12" t="n">
         <v>150.7923326297999</v>
@@ -1506,13 +1506,13 @@
         <v>183.8496882871047</v>
       </c>
       <c r="V12" t="n">
-        <v>190.8297014684615</v>
+        <v>190.8297014684614</v>
       </c>
       <c r="W12" t="n">
         <v>209.7240974799558</v>
       </c>
       <c r="X12" t="n">
-        <v>163.8020995225137</v>
+        <v>163.8020995225136</v>
       </c>
       <c r="Y12" t="n">
         <v>163.7118100963405</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.63322911828577</v>
+        <v>137.8610945009735</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>106.6445873372485</v>
       </c>
       <c r="E13" t="n">
-        <v>104.4630769656054</v>
+        <v>104.4630769656053</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>103.4501623419674</v>
       </c>
       <c r="G13" t="n">
-        <v>124.480615429968</v>
+        <v>124.4806154299679</v>
       </c>
       <c r="H13" t="n">
         <v>106.5689256802814</v>
       </c>
       <c r="I13" t="n">
-        <v>67.18327976611965</v>
+        <v>67.18327976611963</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.1019655846747</v>
+        <v>2.604271510901667</v>
       </c>
       <c r="S13" t="n">
         <v>155.216805078652</v>
       </c>
       <c r="T13" t="n">
-        <v>179.3969330533388</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>244.2641721347529</v>
+        <v>244.2641721347528</v>
       </c>
       <c r="V13" t="n">
-        <v>210.1667576428642</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>244.5521126556272</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>183.7387697080733</v>
       </c>
       <c r="Y13" t="n">
-        <v>176.613767671131</v>
+        <v>176.6137676711309</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>190.8176980868013</v>
       </c>
       <c r="C14" t="n">
         <v>323.3020060900437</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.21687610721204</v>
+        <v>67.216876107212</v>
       </c>
       <c r="T14" t="n">
         <v>161.9470844586563</v>
       </c>
       <c r="U14" t="n">
-        <v>209.0242862779382</v>
+        <v>209.0242862779381</v>
       </c>
       <c r="V14" t="n">
-        <v>174.3108601092158</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>307.2700830364492</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>327.7602149975052</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.2670529750898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1771,19 +1771,19 @@
         <v>106.6445873372485</v>
       </c>
       <c r="E16" t="n">
-        <v>104.4630769656054</v>
+        <v>104.4630769656053</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.4501623419674</v>
       </c>
       <c r="G16" t="n">
         <v>124.0549225780644</v>
       </c>
       <c r="H16" t="n">
-        <v>102.784129233357</v>
+        <v>102.7841292333569</v>
       </c>
       <c r="I16" t="n">
-        <v>54.38153472887431</v>
+        <v>54.38153472887426</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.10608357723088</v>
+        <v>46.96126698908351</v>
       </c>
       <c r="S16" t="n">
-        <v>147.7981396504781</v>
+        <v>147.798139650478</v>
       </c>
       <c r="T16" t="n">
         <v>177.5780635952054</v>
       </c>
       <c r="U16" t="n">
-        <v>244.2409525246491</v>
+        <v>244.240952524649</v>
       </c>
       <c r="V16" t="n">
         <v>210.1667576428642</v>
       </c>
       <c r="W16" t="n">
-        <v>244.5521126556272</v>
+        <v>125.246766901808</v>
       </c>
       <c r="X16" t="n">
         <v>183.7387697080733</v>
       </c>
       <c r="Y16" t="n">
-        <v>176.613767671131</v>
+        <v>176.6137676711309</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C17" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D17" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F17" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H17" t="n">
         <v>196.9230441592154</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T17" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U17" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V17" t="n">
         <v>230.0675382420299</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482622</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G19" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U19" t="n">
         <v>188.5271179775078</v>
@@ -2068,7 +2068,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G20" t="n">
         <v>313.2370054253485</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U20" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V20" t="n">
-        <v>230.0675382420308</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W20" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U22" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V22" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W22" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
         <v>128.0249351609322</v>
@@ -2318,7 +2318,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D23" t="n">
         <v>256.998321392578</v>
@@ -2327,13 +2327,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G23" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V23" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W23" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H24" t="n">
         <v>89.59687541851116</v>
@@ -2451,7 +2451,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U24" t="n">
-        <v>225.7871683969275</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G25" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W25" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y25" t="n">
         <v>120.8999331239898</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>327.0200071163393</v>
+        <v>327.0200071163395</v>
       </c>
       <c r="C26" t="n">
-        <v>309.5590572238663</v>
+        <v>309.5590572238665</v>
       </c>
       <c r="D26" t="n">
-        <v>298.9692070735417</v>
+        <v>298.9692070735419</v>
       </c>
       <c r="E26" t="n">
-        <v>326.2165355251205</v>
+        <v>326.2165355251207</v>
       </c>
       <c r="F26" t="n">
-        <v>351.1622111945702</v>
+        <v>351.1622111945704</v>
       </c>
       <c r="G26" t="n">
-        <v>355.2078911063122</v>
+        <v>355.2078911063124</v>
       </c>
       <c r="H26" t="n">
-        <v>238.8939298401793</v>
+        <v>238.8939298401794</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.47392724103464</v>
+        <v>53.47392724103481</v>
       </c>
       <c r="T26" t="n">
-        <v>148.204135592479</v>
+        <v>148.2041355924791</v>
       </c>
       <c r="U26" t="n">
-        <v>195.2813374117608</v>
+        <v>195.2813374117609</v>
       </c>
       <c r="V26" t="n">
-        <v>272.0384239229937</v>
+        <v>272.0384239229938</v>
       </c>
       <c r="W26" t="n">
-        <v>293.5271341702718</v>
+        <v>293.5271341702719</v>
       </c>
       <c r="X26" t="n">
-        <v>314.0172661313278</v>
+        <v>314.017266131328</v>
       </c>
       <c r="Y26" t="n">
-        <v>330.5241041089124</v>
+        <v>330.5241041089125</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247681</v>
+        <v>18.81721868247675</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.1181456347961</v>
+        <v>124.1181456347963</v>
       </c>
       <c r="C28" t="n">
-        <v>111.5329865514866</v>
+        <v>111.5329865514868</v>
       </c>
       <c r="D28" t="n">
-        <v>92.90163847107115</v>
+        <v>92.90163847107132</v>
       </c>
       <c r="E28" t="n">
-        <v>90.72012809942797</v>
+        <v>90.72012809942814</v>
       </c>
       <c r="F28" t="n">
-        <v>89.70721347579004</v>
+        <v>89.70721347579021</v>
       </c>
       <c r="G28" t="n">
-        <v>110.311973711887</v>
+        <v>110.3119737118872</v>
       </c>
       <c r="H28" t="n">
-        <v>89.04118036717958</v>
+        <v>89.04118036717975</v>
       </c>
       <c r="I28" t="n">
-        <v>40.63858586269691</v>
+        <v>40.63858586269708</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>33.21831812290614</v>
+        <v>33.21831812290631</v>
       </c>
       <c r="S28" t="n">
-        <v>134.0551907843007</v>
+        <v>134.0551907843009</v>
       </c>
       <c r="T28" t="n">
-        <v>163.835114729028</v>
+        <v>163.8351147290282</v>
       </c>
       <c r="U28" t="n">
-        <v>230.4980036584716</v>
+        <v>230.4980036584718</v>
       </c>
       <c r="V28" t="n">
-        <v>196.4238087766868</v>
+        <v>196.423808776687</v>
       </c>
       <c r="W28" t="n">
-        <v>230.8091637894498</v>
+        <v>230.80916378945</v>
       </c>
       <c r="X28" t="n">
-        <v>169.9958208418959</v>
+        <v>169.9958208418961</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.8708188049536</v>
+        <v>162.8708188049538</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>327.0200071163393</v>
+        <v>327.0200071163395</v>
       </c>
       <c r="C29" t="n">
-        <v>309.5590572238663</v>
+        <v>309.5590572238665</v>
       </c>
       <c r="D29" t="n">
-        <v>298.9692070735417</v>
+        <v>298.9692070735419</v>
       </c>
       <c r="E29" t="n">
-        <v>326.2165355251205</v>
+        <v>326.2165355251207</v>
       </c>
       <c r="F29" t="n">
-        <v>351.1622111945702</v>
+        <v>351.1622111945704</v>
       </c>
       <c r="G29" t="n">
-        <v>355.2078911063122</v>
+        <v>355.2078911063124</v>
       </c>
       <c r="H29" t="n">
-        <v>238.8939298401793</v>
+        <v>238.8939298401794</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.47392724103464</v>
+        <v>53.47392724103481</v>
       </c>
       <c r="T29" t="n">
-        <v>148.204135592479</v>
+        <v>148.2041355924791</v>
       </c>
       <c r="U29" t="n">
-        <v>195.2813374117608</v>
+        <v>195.2813374117609</v>
       </c>
       <c r="V29" t="n">
-        <v>272.0384239229937</v>
+        <v>272.0384239229938</v>
       </c>
       <c r="W29" t="n">
-        <v>293.5271341702718</v>
+        <v>293.5271341702719</v>
       </c>
       <c r="X29" t="n">
-        <v>314.0172661313278</v>
+        <v>314.017266131328</v>
       </c>
       <c r="Y29" t="n">
-        <v>330.5241041089124</v>
+        <v>330.5241041089125</v>
       </c>
     </row>
     <row r="30">
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657074</v>
       </c>
       <c r="H30" t="n">
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247681</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.1181456347961</v>
+        <v>124.1181456347963</v>
       </c>
       <c r="C31" t="n">
-        <v>111.5329865514866</v>
+        <v>111.5329865514868</v>
       </c>
       <c r="D31" t="n">
-        <v>92.90163847107115</v>
+        <v>92.90163847107132</v>
       </c>
       <c r="E31" t="n">
-        <v>90.72012809942797</v>
+        <v>90.72012809942814</v>
       </c>
       <c r="F31" t="n">
-        <v>89.70721347579004</v>
+        <v>89.70721347579021</v>
       </c>
       <c r="G31" t="n">
-        <v>110.311973711887</v>
+        <v>110.3119737118872</v>
       </c>
       <c r="H31" t="n">
-        <v>89.04118036717958</v>
+        <v>89.04118036717975</v>
       </c>
       <c r="I31" t="n">
-        <v>40.63858586269691</v>
+        <v>40.63858586269708</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.21831812290614</v>
+        <v>33.21831812290631</v>
       </c>
       <c r="S31" t="n">
-        <v>134.0551907843007</v>
+        <v>134.0551907843009</v>
       </c>
       <c r="T31" t="n">
-        <v>163.835114729028</v>
+        <v>163.8351147290282</v>
       </c>
       <c r="U31" t="n">
-        <v>230.4980036584716</v>
+        <v>230.4980036584718</v>
       </c>
       <c r="V31" t="n">
-        <v>196.4238087766868</v>
+        <v>196.423808776687</v>
       </c>
       <c r="W31" t="n">
-        <v>230.8091637894498</v>
+        <v>230.80916378945</v>
       </c>
       <c r="X31" t="n">
-        <v>169.9958208418959</v>
+        <v>169.9958208418961</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.8708188049536</v>
+        <v>162.8708188049538</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>327.0200071163393</v>
+        <v>327.0200071163396</v>
       </c>
       <c r="C32" t="n">
-        <v>309.5590572238663</v>
+        <v>309.5590572238666</v>
       </c>
       <c r="D32" t="n">
-        <v>298.9692070735417</v>
+        <v>298.969207073542</v>
       </c>
       <c r="E32" t="n">
-        <v>326.2165355251205</v>
+        <v>326.2165355251208</v>
       </c>
       <c r="F32" t="n">
-        <v>351.1622111945702</v>
+        <v>351.1622111945705</v>
       </c>
       <c r="G32" t="n">
-        <v>355.2078911063122</v>
+        <v>355.2078911063125</v>
       </c>
       <c r="H32" t="n">
-        <v>238.8939298401792</v>
+        <v>238.8939298401795</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>53.47392724103462</v>
+        <v>53.47392724103487</v>
       </c>
       <c r="T32" t="n">
-        <v>148.2041355924789</v>
+        <v>148.2041355924792</v>
       </c>
       <c r="U32" t="n">
-        <v>195.2813374117607</v>
+        <v>195.281337411761</v>
       </c>
       <c r="V32" t="n">
-        <v>272.0384239229937</v>
+        <v>272.038423922994</v>
       </c>
       <c r="W32" t="n">
-        <v>293.5271341702718</v>
+        <v>293.5271341702721</v>
       </c>
       <c r="X32" t="n">
-        <v>314.0172661313278</v>
+        <v>314.0172661313281</v>
       </c>
       <c r="Y32" t="n">
-        <v>330.5241041089124</v>
+        <v>330.5241041089126</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851052</v>
+        <v>89.59687541851046</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247745</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>124.1181456347961</v>
+        <v>124.1181456347963</v>
       </c>
       <c r="C34" t="n">
-        <v>111.5329865514866</v>
+        <v>111.5329865514869</v>
       </c>
       <c r="D34" t="n">
-        <v>92.90163847107112</v>
+        <v>92.90163847107138</v>
       </c>
       <c r="E34" t="n">
-        <v>90.72012809942794</v>
+        <v>90.72012809942819</v>
       </c>
       <c r="F34" t="n">
-        <v>89.70721347579001</v>
+        <v>89.70721347579027</v>
       </c>
       <c r="G34" t="n">
-        <v>110.311973711887</v>
+        <v>110.3119737118872</v>
       </c>
       <c r="H34" t="n">
-        <v>89.04118036717955</v>
+        <v>89.04118036717981</v>
       </c>
       <c r="I34" t="n">
-        <v>40.63858586269688</v>
+        <v>40.63858586269713</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>33.21831812290611</v>
+        <v>33.21831812290637</v>
       </c>
       <c r="S34" t="n">
-        <v>134.0551907843007</v>
+        <v>134.0551907843009</v>
       </c>
       <c r="T34" t="n">
-        <v>163.835114729028</v>
+        <v>163.8351147290282</v>
       </c>
       <c r="U34" t="n">
-        <v>230.4980036584716</v>
+        <v>230.4980036584719</v>
       </c>
       <c r="V34" t="n">
-        <v>196.4238087766868</v>
+        <v>196.423808776687</v>
       </c>
       <c r="W34" t="n">
-        <v>230.8091637894498</v>
+        <v>230.80916378945</v>
       </c>
       <c r="X34" t="n">
-        <v>169.9958208418959</v>
+        <v>169.9958208418962</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.8708188049536</v>
+        <v>162.8708188049538</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007103</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307972</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247717</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383247</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052301</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010753</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846435</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482642</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309234</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621596</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333707</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592156</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007101</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307972</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383247</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052301</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010753</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846435</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482642</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309234</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621596</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333707</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,13 +3749,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775078</v>
@@ -4201,7 +4201,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1025.404805254437</v>
+        <v>1166.136501658136</v>
       </c>
       <c r="C11" t="n">
-        <v>1025.404805254437</v>
+        <v>839.5688187389003</v>
       </c>
       <c r="D11" t="n">
-        <v>1025.404805254437</v>
+        <v>839.5688187389003</v>
       </c>
       <c r="E11" t="n">
-        <v>682.011386677368</v>
+        <v>785.5964785819422</v>
       </c>
       <c r="F11" t="n">
-        <v>682.011386677368</v>
+        <v>417.0054078135102</v>
       </c>
       <c r="G11" t="n">
-        <v>308.3751754019509</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H11" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I11" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J11" t="n">
-        <v>152.5078184301913</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K11" t="n">
-        <v>366.8168396232738</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L11" t="n">
-        <v>669.5878927711894</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.148464578733</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.286540135171</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.960612545601</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.630958172452</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q11" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R11" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S11" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T11" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U11" t="n">
-        <v>1957.247496588343</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V11" t="n">
-        <v>1957.247496588343</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="W11" t="n">
-        <v>1646.873675339404</v>
+        <v>1858.086005655719</v>
       </c>
       <c r="X11" t="n">
-        <v>1373.149303209073</v>
+        <v>1858.086005655719</v>
       </c>
       <c r="Y11" t="n">
-        <v>1025.404805254437</v>
+        <v>1510.341507701083</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>650.4910050480394</v>
+        <v>650.4910050480391</v>
       </c>
       <c r="C12" t="n">
-        <v>518.432809788088</v>
+        <v>518.4328097880878</v>
       </c>
       <c r="D12" t="n">
-        <v>411.8932341480123</v>
+        <v>411.8932341480121</v>
       </c>
       <c r="E12" t="n">
-        <v>295.0506131637324</v>
+        <v>295.0506131637322</v>
       </c>
       <c r="F12" t="n">
-        <v>190.9108892117929</v>
+        <v>190.9108892117928</v>
       </c>
       <c r="G12" t="n">
-        <v>96.42972944808439</v>
+        <v>96.42972944808434</v>
       </c>
       <c r="H12" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I12" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J12" t="n">
-        <v>89.55356510562348</v>
+        <v>131.1047419297777</v>
       </c>
       <c r="K12" t="n">
-        <v>288.1960086746067</v>
+        <v>329.7471854987609</v>
       </c>
       <c r="L12" t="n">
-        <v>587.2983210587489</v>
+        <v>628.8494978829031</v>
       </c>
       <c r="M12" t="n">
-        <v>948.756393351413</v>
+        <v>990.3075701755671</v>
       </c>
       <c r="N12" t="n">
-        <v>1291.538917346045</v>
+        <v>1346.983845260268</v>
       </c>
       <c r="O12" t="n">
-        <v>1596.791914690681</v>
+        <v>1638.343091514834</v>
       </c>
       <c r="P12" t="n">
         <v>1852.851507075736</v>
@@ -5145,25 +5145,25 @@
         <v>1946.325505720176</v>
       </c>
       <c r="S12" t="n">
-        <v>1849.75567924307</v>
+        <v>1849.755679243069</v>
       </c>
       <c r="T12" t="n">
         <v>1697.440191738221</v>
       </c>
       <c r="U12" t="n">
-        <v>1511.733435892661</v>
+        <v>1511.73343589266</v>
       </c>
       <c r="V12" t="n">
-        <v>1318.976161682094</v>
+        <v>1318.976161682093</v>
       </c>
       <c r="W12" t="n">
         <v>1107.133638975067</v>
       </c>
       <c r="X12" t="n">
-        <v>941.6769727907102</v>
+        <v>941.6769727907099</v>
       </c>
       <c r="Y12" t="n">
-        <v>776.3115080469319</v>
+        <v>776.3115080469315</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>450.1327297118046</v>
+        <v>662.3496485796994</v>
       </c>
       <c r="C13" t="n">
-        <v>450.1327297118046</v>
+        <v>662.3496485796994</v>
       </c>
       <c r="D13" t="n">
-        <v>450.1327297118046</v>
+        <v>554.6278431885393</v>
       </c>
       <c r="E13" t="n">
-        <v>344.6144701505871</v>
+        <v>449.1095836273217</v>
       </c>
       <c r="F13" t="n">
-        <v>344.6144701505871</v>
+        <v>344.614470150587</v>
       </c>
       <c r="G13" t="n">
-        <v>218.8764747667811</v>
+        <v>218.876474766781</v>
       </c>
       <c r="H13" t="n">
-        <v>111.2310952917494</v>
+        <v>111.2310952917493</v>
       </c>
       <c r="I13" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J13" t="n">
-        <v>100.2474860258966</v>
+        <v>100.2474860258967</v>
       </c>
       <c r="K13" t="n">
         <v>296.8226539729792</v>
       </c>
       <c r="L13" t="n">
-        <v>592.2776011453515</v>
+        <v>592.2776011453516</v>
       </c>
       <c r="M13" t="n">
-        <v>911.9238269606958</v>
+        <v>911.9238269606963</v>
       </c>
       <c r="N13" t="n">
-        <v>1230.39219050588</v>
+        <v>1230.392190505881</v>
       </c>
       <c r="O13" t="n">
-        <v>1511.704914097878</v>
+        <v>1511.704914097879</v>
       </c>
       <c r="P13" t="n">
         <v>1734.892832040167</v>
@@ -5221,28 +5221,28 @@
         <v>1818.764793286882</v>
       </c>
       <c r="R13" t="n">
-        <v>1751.99513108014</v>
+        <v>1816.134216003143</v>
       </c>
       <c r="S13" t="n">
-        <v>1595.210479485542</v>
+        <v>1659.349564408546</v>
       </c>
       <c r="T13" t="n">
-        <v>1414.001456199341</v>
+        <v>1659.349564408546</v>
       </c>
       <c r="U13" t="n">
-        <v>1167.26996919454</v>
+        <v>1412.618077403745</v>
       </c>
       <c r="V13" t="n">
-        <v>954.9803150098287</v>
+        <v>1412.618077403745</v>
       </c>
       <c r="W13" t="n">
-        <v>707.9579789940437</v>
+        <v>1165.59574138796</v>
       </c>
       <c r="X13" t="n">
-        <v>707.9579789940437</v>
+        <v>980.0010245111181</v>
       </c>
       <c r="Y13" t="n">
-        <v>529.5602338716892</v>
+        <v>801.6032793887636</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1062.969569704501</v>
       </c>
       <c r="F14" t="n">
-        <v>694.3784989360686</v>
+        <v>694.3784989360687</v>
       </c>
       <c r="G14" t="n">
         <v>321.7008828022406</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,7 +5288,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939507</v>
@@ -5297,31 +5297,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3257.70998715744</v>
+        <v>3257.709987157441</v>
       </c>
       <c r="T14" t="n">
-        <v>3094.127073562838</v>
+        <v>3094.127073562839</v>
       </c>
       <c r="U14" t="n">
-        <v>2882.99143085785</v>
+        <v>2882.991430857851</v>
       </c>
       <c r="V14" t="n">
-        <v>2706.919854989955</v>
+        <v>2882.991430857851</v>
       </c>
       <c r="W14" t="n">
-        <v>2396.546033741016</v>
+        <v>2572.617609608912</v>
       </c>
       <c r="X14" t="n">
-        <v>2396.546033741016</v>
+        <v>2241.546685369008</v>
       </c>
       <c r="Y14" t="n">
-        <v>2048.80153578638</v>
+        <v>2241.546685369008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5382,25 +5382,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>690.3547288168436</v>
+        <v>794.8498422935784</v>
       </c>
       <c r="C16" t="n">
-        <v>563.8133799101122</v>
+        <v>668.3084933868471</v>
       </c>
       <c r="D16" t="n">
-        <v>456.0915745189521</v>
+        <v>560.5866879956868</v>
       </c>
       <c r="E16" t="n">
-        <v>350.5733149577345</v>
+        <v>455.0684284344692</v>
       </c>
       <c r="F16" t="n">
         <v>350.5733149577345</v>
@@ -5431,13 +5431,13 @@
         <v>121.4429595926625</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>153.1859257032731</v>
       </c>
       <c r="K16" t="n">
-        <v>398.7242854763036</v>
+        <v>398.7242854763037</v>
       </c>
       <c r="L16" t="n">
         <v>756.8352607489539</v>
@@ -5449,7 +5449,7 @@
         <v>1525.503036702676</v>
       </c>
       <c r="O16" t="n">
-        <v>1866.383812447244</v>
+        <v>1866.383812447243</v>
       </c>
       <c r="P16" t="n">
         <v>2140.542489705057</v>
@@ -5458,28 +5458,28 @@
         <v>2259.703962681726</v>
       </c>
       <c r="R16" t="n">
-        <v>2228.283676240078</v>
+        <v>2212.26833946043</v>
       </c>
       <c r="S16" t="n">
-        <v>2078.99262608808</v>
+        <v>2062.977289308431</v>
       </c>
       <c r="T16" t="n">
-        <v>1899.620844678782</v>
+        <v>1883.605507899133</v>
       </c>
       <c r="U16" t="n">
-        <v>1652.9128118256</v>
+        <v>1636.897475045952</v>
       </c>
       <c r="V16" t="n">
-        <v>1440.623157640889</v>
+        <v>1424.607820861241</v>
       </c>
       <c r="W16" t="n">
-        <v>1193.600821625104</v>
+        <v>1298.095935101839</v>
       </c>
       <c r="X16" t="n">
-        <v>1008.006104748262</v>
+        <v>1112.501218224997</v>
       </c>
       <c r="Y16" t="n">
-        <v>829.6083596259077</v>
+        <v>934.1034731026425</v>
       </c>
     </row>
     <row r="17">
@@ -5498,28 +5498,28 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
@@ -5549,7 +5549,7 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W17" t="n">
         <v>2565.332559049856</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5616,28 +5616,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170918</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630284</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E19" t="n">
         <v>231.3077836159866</v>
@@ -5665,40 +5665,40 @@
         <v>114.0578686404821</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226768</v>
       </c>
       <c r="J19" t="n">
-        <v>176.361719815531</v>
+        <v>79.6538467897071</v>
       </c>
       <c r="K19" t="n">
-        <v>371.3804471090253</v>
+        <v>177.9647010573774</v>
       </c>
       <c r="L19" t="n">
-        <v>602.6554402004999</v>
+        <v>430.3824180055586</v>
       </c>
       <c r="M19" t="n">
-        <v>770.0879214996977</v>
+        <v>694.5227723305804</v>
       </c>
       <c r="N19" t="n">
-        <v>941.3967585295452</v>
+        <v>941.3967585295445</v>
       </c>
       <c r="O19" t="n">
-        <v>1176.022980773559</v>
+        <v>1176.022980773558</v>
       </c>
       <c r="P19" t="n">
         <v>1371.681856552141</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R19" t="n">
         <v>1489.975538818983</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T19" t="n">
         <v>1273.865908363022</v>
@@ -5707,16 +5707,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304657</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673485</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431747</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734881</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C20" t="n">
         <v>1440.850850103805</v>
@@ -5735,13 +5735,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F20" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,25 +5750,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5786,16 +5786,16 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5856,25 +5856,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G22" t="n">
         <v>114.0578686404822</v>
@@ -5905,55 +5905,55 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962284</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K22" t="n">
-        <v>273.3535972631171</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L22" t="n">
-        <v>525.7713142112983</v>
+        <v>623.7981640572062</v>
       </c>
       <c r="M22" t="n">
-        <v>693.2037955104961</v>
+        <v>791.230645356404</v>
       </c>
       <c r="N22" t="n">
-        <v>961.2205055661675</v>
+        <v>962.5394823862515</v>
       </c>
       <c r="O22" t="n">
-        <v>1184.688022656036</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P22" t="n">
-        <v>1380.346898434619</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q22" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T22" t="n">
         <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V22" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X22" t="n">
-        <v>607.357570643175</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="23">
@@ -5969,52 +5969,52 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T23" t="n">
         <v>3206.680274668174</v>
@@ -6023,7 +6023,7 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W23" t="n">
         <v>2565.332559049856</v>
@@ -6032,7 +6032,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6099,19 +6099,19 @@
         <v>2242.828302297191</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>175.0427429954468</v>
+        <v>163.8840378413028</v>
       </c>
       <c r="K25" t="n">
-        <v>273.3535972631171</v>
+        <v>358.9027651347971</v>
       </c>
       <c r="L25" t="n">
-        <v>429.0634411854743</v>
+        <v>611.3204820829782</v>
       </c>
       <c r="M25" t="n">
-        <v>693.203795510496</v>
+        <v>778.7529633821759</v>
       </c>
       <c r="N25" t="n">
-        <v>961.2205055661675</v>
+        <v>950.0618004120234</v>
       </c>
       <c r="O25" t="n">
-        <v>1176.022980773559</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P25" t="n">
-        <v>1371.681856552141</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1977.623746317763</v>
+        <v>1977.623746317764</v>
       </c>
       <c r="C26" t="n">
-        <v>1664.937829930019</v>
+        <v>1664.93782993002</v>
       </c>
       <c r="D26" t="n">
-        <v>1362.948731875936</v>
+        <v>1362.948731875937</v>
       </c>
       <c r="E26" t="n">
-        <v>1033.43707983036</v>
+        <v>1033.437079830361</v>
       </c>
       <c r="F26" t="n">
-        <v>678.7277755934201</v>
+        <v>678.727775593421</v>
       </c>
       <c r="G26" t="n">
-        <v>319.9319259910842</v>
+        <v>319.9319259910844</v>
       </c>
       <c r="H26" t="n">
-        <v>78.62492615251928</v>
+        <v>78.62492615251934</v>
       </c>
       <c r="I26" t="n">
-        <v>92.62046187899236</v>
+        <v>92.62046187899224</v>
       </c>
       <c r="J26" t="n">
-        <v>419.7781637946456</v>
+        <v>336.6562890396872</v>
       </c>
       <c r="K26" t="n">
-        <v>808.7542336861618</v>
+        <v>725.6323589312033</v>
       </c>
       <c r="L26" t="n">
-        <v>1314.94514313624</v>
+        <v>1231.823268381282</v>
       </c>
       <c r="M26" t="n">
-        <v>1903.633744009834</v>
+        <v>1820.511869254875</v>
       </c>
       <c r="N26" t="n">
-        <v>2505.569257270286</v>
+        <v>2422.447382515327</v>
       </c>
       <c r="O26" t="n">
-        <v>3063.698424351292</v>
+        <v>2980.576549596334</v>
       </c>
       <c r="P26" t="n">
-        <v>3513.62948691014</v>
+        <v>3430.507612155181</v>
       </c>
       <c r="Q26" t="n">
-        <v>3817.072544867492</v>
+        <v>3752.013289193242</v>
       </c>
       <c r="R26" t="n">
-        <v>3931.246307625964</v>
+        <v>3931.246307625967</v>
       </c>
       <c r="S26" t="n">
-        <v>3877.232239705727</v>
+        <v>3877.23223970573</v>
       </c>
       <c r="T26" t="n">
-        <v>3727.531092642617</v>
+        <v>3727.53109264262</v>
       </c>
       <c r="U26" t="n">
-        <v>3530.277216469121</v>
+        <v>3530.277216469124</v>
       </c>
       <c r="V26" t="n">
-        <v>3255.490929678218</v>
+        <v>3255.490929678221</v>
       </c>
       <c r="W26" t="n">
-        <v>2958.998874960772</v>
+        <v>2958.998874960774</v>
       </c>
       <c r="X26" t="n">
-        <v>2641.80971725236</v>
+        <v>2641.809717252362</v>
       </c>
       <c r="Y26" t="n">
-        <v>2307.946985829216</v>
+        <v>2307.946985829218</v>
       </c>
     </row>
     <row r="27">
@@ -6300,13 +6300,13 @@
         <v>97.6322177509807</v>
       </c>
       <c r="I27" t="n">
-        <v>78.62492615251928</v>
+        <v>78.62492615251934</v>
       </c>
       <c r="J27" t="n">
-        <v>172.3021956431365</v>
+        <v>172.3021956431366</v>
       </c>
       <c r="K27" t="n">
-        <v>410.5663946234836</v>
+        <v>410.5663946234837</v>
       </c>
       <c r="L27" t="n">
         <v>777.2645549361489</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.7902862934681</v>
+        <v>709.7902862934694</v>
       </c>
       <c r="C28" t="n">
-        <v>597.1307039182291</v>
+        <v>597.1307039182302</v>
       </c>
       <c r="D28" t="n">
-        <v>503.2906650585612</v>
+        <v>503.2906650585622</v>
       </c>
       <c r="E28" t="n">
-        <v>411.654172028836</v>
+        <v>411.6541720288368</v>
       </c>
       <c r="F28" t="n">
-        <v>321.0408250835935</v>
+        <v>321.0408250835941</v>
       </c>
       <c r="G28" t="n">
-        <v>209.6145890109804</v>
+        <v>209.6145890109808</v>
       </c>
       <c r="H28" t="n">
-        <v>119.6740027815061</v>
+        <v>119.6740027815063</v>
       </c>
       <c r="I28" t="n">
-        <v>78.62492615251928</v>
+        <v>78.62492615251934</v>
       </c>
       <c r="J28" t="n">
-        <v>145.6043758916285</v>
+        <v>178.9042548011245</v>
       </c>
       <c r="K28" t="n">
-        <v>404.7482550421747</v>
+        <v>438.0481339516705</v>
       </c>
       <c r="L28" t="n">
-        <v>776.4647496923405</v>
+        <v>809.7646286018362</v>
       </c>
       <c r="M28" t="n">
-        <v>999.0539271932081</v>
+        <v>1032.353806102704</v>
       </c>
       <c r="N28" t="n">
-        <v>1395.619000100743</v>
+        <v>1395.201474042974</v>
       </c>
       <c r="O28" t="n">
-        <v>1750.105295222826</v>
+        <v>1749.687769165057</v>
       </c>
       <c r="P28" t="n">
-        <v>2037.869491858155</v>
+        <v>2037.451965800386</v>
       </c>
       <c r="Q28" t="n">
-        <v>2170.218958154568</v>
+        <v>2170.218958154571</v>
       </c>
       <c r="R28" t="n">
-        <v>2136.665101464764</v>
+        <v>2136.665101464766</v>
       </c>
       <c r="S28" t="n">
-        <v>2001.255817844258</v>
+        <v>2001.25581784426</v>
       </c>
       <c r="T28" t="n">
-        <v>1835.765802966452</v>
+        <v>1835.765802966454</v>
       </c>
       <c r="U28" t="n">
-        <v>1602.939536644763</v>
+        <v>1602.939536644765</v>
       </c>
       <c r="V28" t="n">
-        <v>1404.531648991544</v>
+        <v>1404.531648991546</v>
       </c>
       <c r="W28" t="n">
-        <v>1171.391079507252</v>
+        <v>1171.391079507253</v>
       </c>
       <c r="X28" t="n">
-        <v>999.6781291619021</v>
+        <v>999.6781291619038</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.1621505710399</v>
+        <v>835.1621505710414</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1977.623746317763</v>
+        <v>1977.623746317764</v>
       </c>
       <c r="C29" t="n">
         <v>1664.937829930019</v>
       </c>
       <c r="D29" t="n">
-        <v>1362.948731875936</v>
+        <v>1362.948731875937</v>
       </c>
       <c r="E29" t="n">
         <v>1033.43707983036</v>
       </c>
       <c r="F29" t="n">
-        <v>678.7277755934201</v>
+        <v>678.7277755934206</v>
       </c>
       <c r="G29" t="n">
-        <v>319.9319259910842</v>
+        <v>319.9319259910844</v>
       </c>
       <c r="H29" t="n">
-        <v>78.62492615251928</v>
+        <v>78.62492615251934</v>
       </c>
       <c r="I29" t="n">
-        <v>92.62046187899236</v>
+        <v>92.62046187899224</v>
       </c>
       <c r="J29" t="n">
-        <v>336.6562890396875</v>
+        <v>419.7781637946488</v>
       </c>
       <c r="K29" t="n">
-        <v>725.6323589312037</v>
+        <v>808.7542336861649</v>
       </c>
       <c r="L29" t="n">
-        <v>1231.823268381282</v>
+        <v>1314.945143136243</v>
       </c>
       <c r="M29" t="n">
-        <v>1820.511869254876</v>
+        <v>1903.633744009837</v>
       </c>
       <c r="N29" t="n">
-        <v>2422.447382515328</v>
+        <v>2505.569257270289</v>
       </c>
       <c r="O29" t="n">
-        <v>2980.576549596335</v>
+        <v>3063.698424351295</v>
       </c>
       <c r="P29" t="n">
-        <v>3430.507612155182</v>
+        <v>3513.629486910143</v>
       </c>
       <c r="Q29" t="n">
-        <v>3752.013289193239</v>
+        <v>3817.072544867495</v>
       </c>
       <c r="R29" t="n">
-        <v>3931.246307625964</v>
+        <v>3931.246307625967</v>
       </c>
       <c r="S29" t="n">
-        <v>3877.232239705727</v>
+        <v>3877.23223970573</v>
       </c>
       <c r="T29" t="n">
-        <v>3727.531092642617</v>
+        <v>3727.53109264262</v>
       </c>
       <c r="U29" t="n">
-        <v>3530.277216469121</v>
+        <v>3530.277216469123</v>
       </c>
       <c r="V29" t="n">
-        <v>3255.490929678218</v>
+        <v>3255.49092967822</v>
       </c>
       <c r="W29" t="n">
-        <v>2958.998874960772</v>
+        <v>2958.998874960774</v>
       </c>
       <c r="X29" t="n">
-        <v>2641.80971725236</v>
+        <v>2641.809717252362</v>
       </c>
       <c r="Y29" t="n">
-        <v>2307.946985829216</v>
+        <v>2307.946985829218</v>
       </c>
     </row>
     <row r="30">
@@ -6531,19 +6531,19 @@
         <v>324.4972122804951</v>
       </c>
       <c r="G30" t="n">
-        <v>188.1341121131132</v>
+        <v>188.1341121131139</v>
       </c>
       <c r="H30" t="n">
-        <v>97.6322177509807</v>
+        <v>97.6322177509814</v>
       </c>
       <c r="I30" t="n">
-        <v>78.62492615251928</v>
+        <v>78.62492615251934</v>
       </c>
       <c r="J30" t="n">
-        <v>172.3021956431365</v>
+        <v>172.3021956431366</v>
       </c>
       <c r="K30" t="n">
-        <v>410.5663946234836</v>
+        <v>410.5663946234837</v>
       </c>
       <c r="L30" t="n">
         <v>777.2645549361489</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.7902862934681</v>
+        <v>709.7902862934694</v>
       </c>
       <c r="C31" t="n">
-        <v>597.1307039182291</v>
+        <v>597.1307039182302</v>
       </c>
       <c r="D31" t="n">
-        <v>503.2906650585612</v>
+        <v>503.2906650585622</v>
       </c>
       <c r="E31" t="n">
-        <v>411.654172028836</v>
+        <v>411.6541720288368</v>
       </c>
       <c r="F31" t="n">
-        <v>321.0408250835935</v>
+        <v>321.0408250835941</v>
       </c>
       <c r="G31" t="n">
-        <v>209.6145890109804</v>
+        <v>209.6145890109808</v>
       </c>
       <c r="H31" t="n">
-        <v>119.6740027815061</v>
+        <v>119.6740027815063</v>
       </c>
       <c r="I31" t="n">
-        <v>78.62492615251928</v>
+        <v>78.62492615251934</v>
       </c>
       <c r="J31" t="n">
-        <v>178.9042548011246</v>
+        <v>145.6043758916284</v>
       </c>
       <c r="K31" t="n">
-        <v>438.0481339516707</v>
+        <v>299.0719263609683</v>
       </c>
       <c r="L31" t="n">
-        <v>732.9791570151183</v>
+        <v>670.788421011134</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.292898816337</v>
+        <v>1070.102162812353</v>
       </c>
       <c r="N31" t="n">
-        <v>1528.857971723872</v>
+        <v>1466.667235719887</v>
       </c>
       <c r="O31" t="n">
-        <v>1883.344266845955</v>
+        <v>1821.15353084197</v>
       </c>
       <c r="P31" t="n">
-        <v>2037.451965800383</v>
+        <v>2102.141494594361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2170.218958154568</v>
+        <v>2170.218958154571</v>
       </c>
       <c r="R31" t="n">
-        <v>2136.665101464764</v>
+        <v>2136.665101464766</v>
       </c>
       <c r="S31" t="n">
-        <v>2001.255817844258</v>
+        <v>2001.25581784426</v>
       </c>
       <c r="T31" t="n">
-        <v>1835.765802966452</v>
+        <v>1835.765802966454</v>
       </c>
       <c r="U31" t="n">
-        <v>1602.939536644763</v>
+        <v>1602.939536644765</v>
       </c>
       <c r="V31" t="n">
-        <v>1404.531648991544</v>
+        <v>1404.531648991546</v>
       </c>
       <c r="W31" t="n">
-        <v>1171.391079507252</v>
+        <v>1171.391079507253</v>
       </c>
       <c r="X31" t="n">
-        <v>999.6781291619021</v>
+        <v>999.6781291619038</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.1621505710399</v>
+        <v>835.1621505710414</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1977.623746317762</v>
+        <v>1977.623746317763</v>
       </c>
       <c r="C32" t="n">
-        <v>1664.937829930018</v>
+        <v>1664.937829930019</v>
       </c>
       <c r="D32" t="n">
         <v>1362.948731875936</v>
       </c>
       <c r="E32" t="n">
-        <v>1033.437079830359</v>
+        <v>1033.43707983036</v>
       </c>
       <c r="F32" t="n">
-        <v>678.7277755934198</v>
+        <v>678.7277755934197</v>
       </c>
       <c r="G32" t="n">
-        <v>319.9319259910841</v>
+        <v>319.9319259910845</v>
       </c>
       <c r="H32" t="n">
-        <v>78.62492615251928</v>
+        <v>78.62492615251934</v>
       </c>
       <c r="I32" t="n">
-        <v>92.62046187899239</v>
+        <v>92.62046187899219</v>
       </c>
       <c r="J32" t="n">
-        <v>336.6562890396876</v>
+        <v>419.7781637946495</v>
       </c>
       <c r="K32" t="n">
-        <v>808.7542336861611</v>
+        <v>808.7542336861654</v>
       </c>
       <c r="L32" t="n">
-        <v>1314.945143136239</v>
+        <v>1314.945143136244</v>
       </c>
       <c r="M32" t="n">
-        <v>1903.633744009834</v>
+        <v>1903.633744009837</v>
       </c>
       <c r="N32" t="n">
-        <v>2505.569257270286</v>
+        <v>2505.569257270289</v>
       </c>
       <c r="O32" t="n">
-        <v>3063.698424351292</v>
+        <v>3063.698424351296</v>
       </c>
       <c r="P32" t="n">
-        <v>3513.62948691014</v>
+        <v>3513.629486910143</v>
       </c>
       <c r="Q32" t="n">
-        <v>3817.072544867492</v>
+        <v>3817.072544867495</v>
       </c>
       <c r="R32" t="n">
-        <v>3931.246307625964</v>
+        <v>3931.246307625967</v>
       </c>
       <c r="S32" t="n">
-        <v>3877.232239705726</v>
+        <v>3877.232239705729</v>
       </c>
       <c r="T32" t="n">
-        <v>3727.531092642616</v>
+        <v>3727.531092642619</v>
       </c>
       <c r="U32" t="n">
-        <v>3530.277216469121</v>
+        <v>3530.277216469123</v>
       </c>
       <c r="V32" t="n">
-        <v>3255.490929678218</v>
+        <v>3255.49092967822</v>
       </c>
       <c r="W32" t="n">
-        <v>2958.998874960772</v>
+        <v>2958.998874960773</v>
       </c>
       <c r="X32" t="n">
-        <v>2641.80971725236</v>
+        <v>2641.809717252361</v>
       </c>
       <c r="Y32" t="n">
-        <v>2307.946985829216</v>
+        <v>2307.946985829217</v>
       </c>
     </row>
     <row r="33">
@@ -6771,16 +6771,16 @@
         <v>188.1341121131132</v>
       </c>
       <c r="H33" t="n">
-        <v>97.63221775098134</v>
+        <v>97.6322177509814</v>
       </c>
       <c r="I33" t="n">
-        <v>78.62492615251928</v>
+        <v>78.62492615251934</v>
       </c>
       <c r="J33" t="n">
-        <v>172.3021956431365</v>
+        <v>172.3021956431366</v>
       </c>
       <c r="K33" t="n">
-        <v>410.5663946234836</v>
+        <v>410.5663946234837</v>
       </c>
       <c r="L33" t="n">
         <v>777.2645549361489</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.7902862934679</v>
+        <v>709.7902862934698</v>
       </c>
       <c r="C34" t="n">
-        <v>597.130703918229</v>
+        <v>597.1307039182306</v>
       </c>
       <c r="D34" t="n">
-        <v>503.2906650585611</v>
+        <v>503.2906650585625</v>
       </c>
       <c r="E34" t="n">
-        <v>411.6541720288359</v>
+        <v>411.654172028837</v>
       </c>
       <c r="F34" t="n">
-        <v>321.0408250835935</v>
+        <v>321.0408250835943</v>
       </c>
       <c r="G34" t="n">
-        <v>209.6145890109803</v>
+        <v>209.6145890109809</v>
       </c>
       <c r="H34" t="n">
-        <v>119.674002781506</v>
+        <v>119.6740027815063</v>
       </c>
       <c r="I34" t="n">
-        <v>78.62492615251928</v>
+        <v>78.62492615251934</v>
       </c>
       <c r="J34" t="n">
-        <v>178.9042548011246</v>
+        <v>145.6043758916283</v>
       </c>
       <c r="K34" t="n">
-        <v>438.0481339516708</v>
+        <v>299.0719263609682</v>
       </c>
       <c r="L34" t="n">
-        <v>809.7646286018366</v>
+        <v>670.7884210111338</v>
       </c>
       <c r="M34" t="n">
-        <v>1209.078370403055</v>
+        <v>1063.325929929416</v>
       </c>
       <c r="N34" t="n">
-        <v>1435.543903634573</v>
+        <v>1459.89100283695</v>
       </c>
       <c r="O34" t="n">
-        <v>1749.687769165053</v>
+        <v>1814.377297959033</v>
       </c>
       <c r="P34" t="n">
-        <v>2037.451965800383</v>
+        <v>2102.141494594362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2170.218958154567</v>
+        <v>2170.218958154572</v>
       </c>
       <c r="R34" t="n">
-        <v>2136.665101464763</v>
+        <v>2136.665101464767</v>
       </c>
       <c r="S34" t="n">
-        <v>2001.255817844258</v>
+        <v>2001.255817844261</v>
       </c>
       <c r="T34" t="n">
-        <v>1835.765802966451</v>
+        <v>1835.765802966455</v>
       </c>
       <c r="U34" t="n">
-        <v>1602.939536644763</v>
+        <v>1602.939536644766</v>
       </c>
       <c r="V34" t="n">
-        <v>1404.531648991544</v>
+        <v>1404.531648991547</v>
       </c>
       <c r="W34" t="n">
-        <v>1171.391079507251</v>
+        <v>1171.391079507254</v>
       </c>
       <c r="X34" t="n">
-        <v>999.678129161902</v>
+        <v>999.6781291619043</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.1621505710398</v>
+        <v>835.1621505710418</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218599</v>
+        <v>66.51211643218286</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912114</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810578</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064524</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170932</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630295</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245371</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159873</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919202</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954466</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K37" t="n">
-        <v>370.0614702889408</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L37" t="n">
-        <v>622.4791872371218</v>
+        <v>622.4791872371222</v>
       </c>
       <c r="M37" t="n">
-        <v>886.6195415621432</v>
+        <v>886.6195415621439</v>
       </c>
       <c r="N37" t="n">
-        <v>1154.636251617814</v>
+        <v>1057.928378591992</v>
       </c>
       <c r="O37" t="n">
-        <v>1292.554600836004</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P37" t="n">
-        <v>1477.054771460445</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818986</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818986</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363025</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062512</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304679</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673505</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431765</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734897</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7157,55 +7157,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G38" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218417</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746128</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
@@ -7248,16 +7248,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170932</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630295</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245371</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159873</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919201</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954466</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K40" t="n">
-        <v>358.9027651347986</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>611.3204820829797</v>
+        <v>429.0634411854743</v>
       </c>
       <c r="M40" t="n">
-        <v>778.7529633821774</v>
+        <v>682.0450903563521</v>
       </c>
       <c r="N40" t="n">
-        <v>1046.769673437849</v>
+        <v>950.0618004120234</v>
       </c>
       <c r="O40" t="n">
-        <v>1184.688022656039</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.346898434621</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818986</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818986</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363025</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062512</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304679</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673505</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431765</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734897</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307324</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,25 +7409,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7439,7 +7439,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515854</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7509,31 +7509,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
@@ -7567,52 +7567,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962284</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>262.1948921089732</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L43" t="n">
-        <v>514.6126090571544</v>
+        <v>525.7713142112983</v>
       </c>
       <c r="M43" t="n">
-        <v>682.0450903563521</v>
+        <v>789.91166853632</v>
       </c>
       <c r="N43" t="n">
-        <v>950.0618004120234</v>
+        <v>1057.928378591992</v>
       </c>
       <c r="O43" t="n">
-        <v>1184.688022656037</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.34689843462</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="44">
@@ -7631,28 +7631,28 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7661,16 +7661,16 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
         <v>3313.986587710109</v>
@@ -7691,7 +7691,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7737,13 +7737,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170918</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630284</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E46" t="n">
         <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>175.0427429954468</v>
@@ -7810,19 +7810,19 @@
         <v>370.0614702889411</v>
       </c>
       <c r="L46" t="n">
-        <v>622.4791872371222</v>
+        <v>611.3204820829765</v>
       </c>
       <c r="M46" t="n">
-        <v>886.6195415621439</v>
+        <v>778.7529633821742</v>
       </c>
       <c r="N46" t="n">
-        <v>1143.47754646367</v>
+        <v>950.0618004120217</v>
       </c>
       <c r="O46" t="n">
-        <v>1378.103768707684</v>
+        <v>1184.688022656035</v>
       </c>
       <c r="P46" t="n">
-        <v>1477.054771460442</v>
+        <v>1380.346898434618</v>
       </c>
       <c r="Q46" t="n">
         <v>1489.975538818983</v>
@@ -7831,7 +7831,7 @@
         <v>1489.975538818983</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T46" t="n">
         <v>1273.865908363022</v>
@@ -7840,16 +7840,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304657</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673485</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431747</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734881</v>
       </c>
     </row>
   </sheetData>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>83.96148965147287</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>18.24506977849416</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10042,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>137.7597320290442</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10051,7 +10051,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.92121488505262</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>83.9614896514764</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.24506977848989</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10267,13 +10267,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>84.91361913072788</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
@@ -10285,10 +10285,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>128.1618836343058</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>83.96148965147714</v>
       </c>
       <c r="K32" t="n">
-        <v>83.96148965147205</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>171.6649812297117</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>122.2917374854758</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.45439429404281</v>
+        <v>14.4543942940428</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340.7629559825168</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>323.3020060900437</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>312.7121559397191</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>286.5268676359094</v>
       </c>
       <c r="F11" t="n">
-        <v>364.9051600607476</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>262.3559190752192</v>
       </c>
       <c r="I11" t="n">
-        <v>36.19272089611903</v>
+        <v>36.192720896119</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.84242302828653</v>
+        <v>88.8424230282865</v>
       </c>
       <c r="T11" t="n">
         <v>166.10137218864</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>209.100207013152</v>
       </c>
       <c r="V11" t="n">
         <v>285.7813727891711</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>56.77308658847728</v>
+        <v>327.7602149975052</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.22786538268771</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>125.275935417664</v>
       </c>
       <c r="D13" t="n">
-        <v>106.6445873372485</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>103.4501623419674</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>63.497694073773</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>179.3969330533388</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>210.1667576428642</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>183.7387697080733</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.7629559825168</v>
+        <v>149.9452578957154</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>111.4705126799553</v>
+        <v>285.7813727891711</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>327.7602149975052</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>344.2670529750898</v>
       </c>
     </row>
     <row r="15">
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>103.4501623419674</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>15.85518341185265</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>119.3053457538192</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1223774.222150256</v>
+        <v>1223774.222150255</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>122891.4508075558</v>
+      </c>
+      <c r="C2" t="n">
         <v>122891.4508075557</v>
       </c>
-      <c r="C2" t="n">
-        <v>122891.4508075558</v>
-      </c>
       <c r="D2" t="n">
-        <v>122901.5800256156</v>
+        <v>122901.5800256155</v>
       </c>
       <c r="E2" t="n">
         <v>97488.29447941606</v>
@@ -26329,13 +26329,13 @@
         <v>123156.2654796427</v>
       </c>
       <c r="H2" t="n">
+        <v>123156.2654796427</v>
+      </c>
+      <c r="I2" t="n">
         <v>123156.2654796426</v>
       </c>
-      <c r="I2" t="n">
-        <v>123156.2654796427</v>
-      </c>
       <c r="J2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796424</v>
@@ -26344,7 +26344,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796427</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796426</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>180725.0865729375</v>
+        <v>180725.0865729381</v>
       </c>
       <c r="E3" t="n">
-        <v>711775.5967630018</v>
+        <v>711775.5967630012</v>
       </c>
       <c r="F3" t="n">
-        <v>269485.3211896552</v>
+        <v>269485.3211896553</v>
       </c>
       <c r="G3" t="n">
         <v>44571.06763771297</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>39615.54983084455</v>
+        <v>39615.5498308446</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44571.06763771299</v>
+        <v>44571.06763771291</v>
       </c>
       <c r="M3" t="n">
         <v>130941.9163014258</v>
       </c>
       <c r="N3" t="n">
-        <v>70854.07426124791</v>
+        <v>70854.07426124807</v>
       </c>
       <c r="O3" t="n">
-        <v>1.023181539494544e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>394063.4811291244</v>
+        <v>394063.4811291241</v>
       </c>
       <c r="E4" t="n">
-        <v>77140.64702311758</v>
+        <v>77140.64702311761</v>
       </c>
       <c r="F4" t="n">
-        <v>57045.55524722845</v>
+        <v>57045.55524722848</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657705</v>
+        <v>93774.13782657709</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="J4" t="n">
         <v>94705.99604462128</v>
       </c>
       <c r="K4" t="n">
-        <v>94705.99604462126</v>
+        <v>94705.99604462128</v>
       </c>
       <c r="L4" t="n">
-        <v>94705.99604462125</v>
+        <v>94705.99604462122</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.137826577</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.1378265769</v>
+        <v>93774.137826577</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657706</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38227.95320217796</v>
+        <v>38227.95320217797</v>
       </c>
       <c r="E5" t="n">
-        <v>55099.93224418529</v>
+        <v>55099.93224418527</v>
       </c>
       <c r="F5" t="n">
-        <v>77834.79094970622</v>
+        <v>77834.79094970625</v>
       </c>
       <c r="G5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="H5" t="n">
         <v>82518.59730624984</v>
-      </c>
-      <c r="H5" t="n">
-        <v>82518.59730624985</v>
       </c>
       <c r="I5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="J5" t="n">
-        <v>88195.88230539217</v>
+        <v>88195.8823053922</v>
       </c>
       <c r="K5" t="n">
-        <v>88195.88230539217</v>
+        <v>88195.8823053922</v>
       </c>
       <c r="L5" t="n">
-        <v>88195.88230539217</v>
+        <v>88195.88230539218</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378352.1091241754</v>
+        <v>-378356.5227020436</v>
       </c>
       <c r="C6" t="n">
-        <v>-378352.1091241754</v>
+        <v>-378356.5227020436</v>
       </c>
       <c r="D6" t="n">
-        <v>-490114.9408786242</v>
+        <v>-490119.1856361918</v>
       </c>
       <c r="E6" t="n">
-        <v>-746527.8815508884</v>
+        <v>-746955.6810675584</v>
       </c>
       <c r="F6" t="n">
-        <v>-290952.0257345613</v>
+        <v>-291114.402798355</v>
       </c>
       <c r="G6" t="n">
-        <v>-97707.53729089719</v>
+        <v>-97707.53729089718</v>
       </c>
       <c r="H6" t="n">
-        <v>-53136.46965318429</v>
+        <v>-53136.46965318415</v>
       </c>
       <c r="I6" t="n">
-        <v>-53136.46965318423</v>
+        <v>-53136.46965318426</v>
       </c>
       <c r="J6" t="n">
-        <v>-99361.16270121564</v>
+        <v>-99361.16270121573</v>
       </c>
       <c r="K6" t="n">
-        <v>-59745.61287037106</v>
+        <v>-59745.61287037109</v>
       </c>
       <c r="L6" t="n">
-        <v>-104316.680508084</v>
+        <v>-104316.6805080839</v>
       </c>
       <c r="M6" t="n">
-        <v>-184078.3859546101</v>
+        <v>-184078.38595461</v>
       </c>
       <c r="N6" t="n">
-        <v>-123990.543914432</v>
+        <v>-123990.5439144323</v>
       </c>
       <c r="O6" t="n">
-        <v>-53136.46965318429</v>
+        <v>-53136.46965318421</v>
       </c>
       <c r="P6" t="n">
-        <v>-53136.46965318431</v>
+        <v>-53136.46965318434</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="F2" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="G2" t="n">
+        <v>97.68472022810505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>97.68472022810495</v>
+      </c>
+      <c r="I2" t="n">
+        <v>97.68472022810495</v>
+      </c>
+      <c r="J2" t="n">
+        <v>55.71383454714104</v>
+      </c>
+      <c r="K2" t="n">
+        <v>55.71383454714104</v>
+      </c>
+      <c r="L2" t="n">
+        <v>55.71383454714097</v>
+      </c>
+      <c r="M2" t="n">
+        <v>97.68472022810495</v>
+      </c>
+      <c r="N2" t="n">
+        <v>97.68472022810495</v>
+      </c>
+      <c r="O2" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="H2" t="n">
-        <v>97.68472022810501</v>
-      </c>
-      <c r="I2" t="n">
-        <v>97.68472022810502</v>
-      </c>
-      <c r="J2" t="n">
-        <v>55.71383454714121</v>
-      </c>
-      <c r="K2" t="n">
-        <v>55.71383454714121</v>
-      </c>
-      <c r="L2" t="n">
-        <v>55.71383454714123</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97.68472022810482</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97.68472022810482</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810495</v>
-      </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>211.0253762466955</v>
+        <v>211.0253762466962</v>
       </c>
       <c r="E3" t="n">
         <v>853.7106645376851</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.1149567261646</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>982.811576906491</v>
+        <v>982.8115769064917</v>
       </c>
       <c r="K4" t="n">
-        <v>982.811576906491</v>
+        <v>982.8115769064917</v>
       </c>
       <c r="L4" t="n">
-        <v>982.811576906491</v>
+        <v>982.8115769064917</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714114</v>
       </c>
       <c r="M2" t="n">
-        <v>41.97088568096359</v>
+        <v>41.97088568096388</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>211.0253762466955</v>
+        <v>211.0253762466962</v>
       </c>
       <c r="E3" t="n">
-        <v>642.6852882909897</v>
+        <v>642.685288290989</v>
       </c>
       <c r="F3" t="n">
         <v>236.0660360556129</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.1149567261646</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="F4" t="n">
-        <v>289.2864986761278</v>
+        <v>289.2864986761283</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>151.4101215041986</v>
+        <v>151.4101215041991</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>390.7048352219666</v>
+        <v>390.7048352219653</v>
       </c>
       <c r="N4" t="n">
-        <v>289.2864986761276</v>
+        <v>289.2864986761283</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.1149567261646</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="N4" t="n">
-        <v>289.2864986761278</v>
+        <v>289.2864986761283</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,40 +27871,40 @@
         <v>330.7867071027562</v>
       </c>
       <c r="I8" t="n">
-        <v>177.7701375392472</v>
+        <v>177.7701375392471</v>
       </c>
       <c r="J8" t="n">
-        <v>109.0438340655085</v>
+        <v>109.0438340655083</v>
       </c>
       <c r="K8" t="n">
-        <v>112.1774120349681</v>
+        <v>112.1774120349678</v>
       </c>
       <c r="L8" t="n">
-        <v>101.8914921074731</v>
+        <v>101.8914921074726</v>
       </c>
       <c r="M8" t="n">
-        <v>81.38458660665938</v>
+        <v>81.3845866066589</v>
       </c>
       <c r="N8" t="n">
-        <v>78.0410617990492</v>
+        <v>78.04106179904872</v>
       </c>
       <c r="O8" t="n">
-        <v>87.16192252888101</v>
+        <v>87.16192252888055</v>
       </c>
       <c r="P8" t="n">
-        <v>109.2401801331786</v>
+        <v>109.2401801331782</v>
       </c>
       <c r="Q8" t="n">
-        <v>130.6941658577245</v>
+        <v>130.6941658577242</v>
       </c>
       <c r="R8" t="n">
-        <v>162.2957979521965</v>
+        <v>162.2957979521963</v>
       </c>
       <c r="S8" t="n">
         <v>189.6884484356058</v>
       </c>
       <c r="T8" t="n">
-        <v>219.3822271138001</v>
+        <v>219.3822271138</v>
       </c>
       <c r="U8" t="n">
         <v>251.2777854501491</v>
@@ -27950,34 +27950,34 @@
         <v>107.8516906657868</v>
       </c>
       <c r="I9" t="n">
-        <v>83.89455732512678</v>
+        <v>83.89455732512674</v>
       </c>
       <c r="J9" t="n">
-        <v>83.95368676355284</v>
+        <v>83.9536867635527</v>
       </c>
       <c r="K9" t="n">
-        <v>64.5459552264855</v>
+        <v>64.54595522648528</v>
       </c>
       <c r="L9" t="n">
-        <v>39.99955665635849</v>
+        <v>39.99955665635818</v>
       </c>
       <c r="M9" t="n">
-        <v>27.12520386756928</v>
+        <v>27.1252038675689</v>
       </c>
       <c r="N9" t="n">
-        <v>13.28894051679748</v>
+        <v>13.2889405167971</v>
       </c>
       <c r="O9" t="n">
-        <v>34.60102194204357</v>
+        <v>34.60102194204322</v>
       </c>
       <c r="P9" t="n">
-        <v>47.29872032915449</v>
+        <v>47.29872032915421</v>
       </c>
       <c r="Q9" t="n">
-        <v>82.04137266824956</v>
+        <v>82.04137266824938</v>
       </c>
       <c r="R9" t="n">
-        <v>117.4976622078486</v>
+        <v>117.4976622078485</v>
       </c>
       <c r="S9" t="n">
         <v>163.2521100811514</v>
@@ -28032,28 +28032,28 @@
         <v>144.0066725563719</v>
       </c>
       <c r="J10" t="n">
-        <v>100.0914156841412</v>
+        <v>100.0914156841411</v>
       </c>
       <c r="K10" t="n">
-        <v>84.80171213065394</v>
+        <v>84.8017121306538</v>
       </c>
       <c r="L10" t="n">
-        <v>78.30911885273896</v>
+        <v>78.30911885273878</v>
       </c>
       <c r="M10" t="n">
-        <v>79.27479111773997</v>
+        <v>79.27479111773978</v>
       </c>
       <c r="N10" t="n">
-        <v>69.45291891833766</v>
+        <v>69.45291891833747</v>
       </c>
       <c r="O10" t="n">
-        <v>84.66928353571782</v>
+        <v>84.66928353571765</v>
       </c>
       <c r="P10" t="n">
-        <v>91.7037154329831</v>
+        <v>91.70371543298295</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.6401698161948</v>
+        <v>119.6401698161947</v>
       </c>
       <c r="R10" t="n">
         <v>160.1830387391997</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="C11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="D11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="E11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="F11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="G11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="H11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="I11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="T11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="U11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="V11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="W11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="X11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
     </row>
     <row r="12">
@@ -28166,49 +28166,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="C12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="D12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="E12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="F12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="G12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="H12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="I12" t="n">
         <v>36.29946757904878</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="K12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="L12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="M12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>14.03409201017064</v>
       </c>
       <c r="O12" t="n">
-        <v>14.03409201017098</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>41.97088568096381</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>31.66886087721419</v>
       </c>
       <c r="S12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="T12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="U12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="V12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="W12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="X12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="C13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="D13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="E13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="F13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="G13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="H13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="I13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="J13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="K13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="L13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="M13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="N13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="O13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="P13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="R13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="S13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="T13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="U13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="V13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="W13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="X13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="C14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="D14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="E14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="F14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="G14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="H14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="T14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="U14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="V14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="W14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="X14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="C16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="D16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="E16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="F16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="G16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="H16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="I16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="J16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="K16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="L16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="M16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="N16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="O16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="P16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="R16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="S16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="T16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="U16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="V16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="W16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="X16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.97088568096381</v>
+        <v>41.97088568096384</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>76.32843350415897</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>76.3284335041582</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>86.41330088048375</v>
+        <v>76.32843350416042</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="24">
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29171,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
-        <v>97.68472022810502</v>
+        <v>86.41330088048481</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>77.66073332242593</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810502</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="C26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="D26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="E26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="F26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="G26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="H26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="I26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="J26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="K26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="L26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="M26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="N26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="O26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="P26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="R26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="S26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="T26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="U26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="V26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="W26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="X26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
     </row>
     <row r="27">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>6.963318810448982e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="C28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="D28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="E28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="F28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="G28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="H28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="I28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="J28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="K28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="L28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="M28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="N28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="O28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="P28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="R28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="S28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="T28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="U28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="V28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="W28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="X28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="Y28" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="C29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="D29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="E29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="F29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="G29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="H29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="I29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="J29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="K29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="L29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="M29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="N29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="O29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="P29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="R29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="S29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="T29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="U29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="V29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="W29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="X29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="Y29" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
     </row>
     <row r="30">
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="C31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="D31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="E31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="F31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="G31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="H31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="I31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="J31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="K31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="L31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="M31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="N31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="O31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="P31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="R31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="S31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="T31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="U31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="V31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="W31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="X31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.71383454714121</v>
+        <v>55.71383454714104</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="C32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="D32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="E32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="F32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="G32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="H32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="I32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="J32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="K32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="L32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="M32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="N32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="O32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="P32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="R32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="S32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="T32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="U32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="V32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="W32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="X32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="Y32" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>6.963318810448982e-13</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="C34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="D34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="E34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="F34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="G34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="H34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="I34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="J34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="K34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="L34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="M34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="N34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="O34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="P34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="R34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="S34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="T34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="U34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="V34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="W34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="X34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.71383454714123</v>
+        <v>55.71383454714097</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292855</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.735589532676386e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810482</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>86.41330088048696</v>
+        <v>86.4133008804846</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810482</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>86.4133008804865</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>86.41330088048497</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K43" t="n">
-        <v>86.41330088048494</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810495</v>
+        <v>86.41330088048342</v>
       </c>
       <c r="R43" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810502</v>
+        <v>86.41330088048298</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>86.41330088048346</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="R46" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8483432210922426</v>
+        <v>0.8483432210922454</v>
       </c>
       <c r="H8" t="n">
-        <v>8.688095013010932</v>
+        <v>8.68809501301096</v>
       </c>
       <c r="I8" t="n">
-        <v>32.70575203115872</v>
+        <v>32.70575203115882</v>
       </c>
       <c r="J8" t="n">
-        <v>72.00207046117779</v>
+        <v>72.00207046117802</v>
       </c>
       <c r="K8" t="n">
-        <v>107.9124390100124</v>
+        <v>107.9124390100128</v>
       </c>
       <c r="L8" t="n">
-        <v>133.8749228625142</v>
+        <v>133.8749228625146</v>
       </c>
       <c r="M8" t="n">
-        <v>148.9616466206134</v>
+        <v>148.9616466206138</v>
       </c>
       <c r="N8" t="n">
-        <v>151.3720017975417</v>
+        <v>151.3720017975422</v>
       </c>
       <c r="O8" t="n">
-        <v>142.9362888928057</v>
+        <v>142.9362888928062</v>
       </c>
       <c r="P8" t="n">
-        <v>121.9928156220909</v>
+        <v>121.9928156220913</v>
       </c>
       <c r="Q8" t="n">
-        <v>91.61152401672499</v>
+        <v>91.61152401672528</v>
       </c>
       <c r="R8" t="n">
-        <v>53.28973986193564</v>
+        <v>53.28973986193581</v>
       </c>
       <c r="S8" t="n">
-        <v>19.3316211506395</v>
+        <v>19.33162115063956</v>
       </c>
       <c r="T8" t="n">
-        <v>3.713622450331294</v>
+        <v>3.713622450331306</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0678674576873794</v>
+        <v>0.06786745768737962</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4539036394740243</v>
+        <v>0.4539036394740258</v>
       </c>
       <c r="H9" t="n">
-        <v>4.383753570709657</v>
+        <v>4.383753570709671</v>
       </c>
       <c r="I9" t="n">
-        <v>15.62782267487321</v>
+        <v>15.62782267487326</v>
       </c>
       <c r="J9" t="n">
-        <v>42.88393990311386</v>
+        <v>42.883939903114</v>
       </c>
       <c r="K9" t="n">
-        <v>73.29548374787349</v>
+        <v>73.29548374787372</v>
       </c>
       <c r="L9" t="n">
-        <v>98.55482312351569</v>
+        <v>98.554823123516</v>
       </c>
       <c r="M9" t="n">
-        <v>115.008830054449</v>
+        <v>115.0088300544494</v>
       </c>
       <c r="N9" t="n">
-        <v>118.0527715665358</v>
+        <v>118.0527715665362</v>
       </c>
       <c r="O9" t="n">
-        <v>107.9952225024009</v>
+        <v>107.9952225024012</v>
       </c>
       <c r="P9" t="n">
-        <v>86.67568708517575</v>
+        <v>86.67568708517604</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.94040141777195</v>
+        <v>57.94040141777214</v>
       </c>
       <c r="R9" t="n">
-        <v>28.18184175611531</v>
+        <v>28.1818417561154</v>
       </c>
       <c r="S9" t="n">
-        <v>8.431061022686368</v>
+        <v>8.431061022686395</v>
       </c>
       <c r="T9" t="n">
-        <v>1.829550195950124</v>
+        <v>1.82955019595013</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02986208154434372</v>
+        <v>0.02986208154434382</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3805375637235492</v>
+        <v>0.3805375637235505</v>
       </c>
       <c r="H10" t="n">
-        <v>3.383324884742104</v>
+        <v>3.383324884742115</v>
       </c>
       <c r="I10" t="n">
-        <v>11.44380237088638</v>
+        <v>11.44380237088641</v>
       </c>
       <c r="J10" t="n">
-        <v>26.90400575525493</v>
+        <v>26.90400575525502</v>
       </c>
       <c r="K10" t="n">
-        <v>44.21154603988144</v>
+        <v>44.21154603988158</v>
       </c>
       <c r="L10" t="n">
-        <v>56.57555742849932</v>
+        <v>56.57555742849951</v>
       </c>
       <c r="M10" t="n">
-        <v>59.65099282986508</v>
+        <v>59.65099282986527</v>
       </c>
       <c r="N10" t="n">
-        <v>58.23262554689553</v>
+        <v>58.23262554689573</v>
       </c>
       <c r="O10" t="n">
-        <v>53.78725491612497</v>
+        <v>53.78725491612514</v>
       </c>
       <c r="P10" t="n">
-        <v>46.02428861616452</v>
+        <v>46.02428861616467</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.86483181325102</v>
+        <v>31.86483181325113</v>
       </c>
       <c r="R10" t="n">
-        <v>17.11035263796976</v>
+        <v>17.11035263796982</v>
       </c>
       <c r="S10" t="n">
-        <v>6.631731905982215</v>
+        <v>6.631731905982236</v>
       </c>
       <c r="T10" t="n">
-        <v>1.625933226818801</v>
+        <v>1.625933226818806</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02075659438492089</v>
+        <v>0.02075659438492096</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34381,7 +34381,7 @@
         <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099068</v>
       </c>
       <c r="P44" t="n">
         <v>629.9949819746412</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>46.6508773409397</v>
+        <v>88.62176302190355</v>
       </c>
       <c r="K12" t="n">
         <v>200.6489328979629</v>
@@ -35498,13 +35498,13 @@
         <v>365.1091639319839</v>
       </c>
       <c r="N12" t="n">
-        <v>346.2449737319515</v>
+        <v>360.2790657421222</v>
       </c>
       <c r="O12" t="n">
-        <v>308.3363609541776</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P12" t="n">
-        <v>258.6460529141972</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q12" t="n">
         <v>94.41818044892935</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.45281766444803</v>
+        <v>57.45281766444806</v>
       </c>
       <c r="K13" t="n">
         <v>198.5607757041238</v>
       </c>
       <c r="L13" t="n">
-        <v>298.4393405781538</v>
+        <v>298.4393405781539</v>
       </c>
       <c r="M13" t="n">
-        <v>322.8749755710552</v>
+        <v>322.8749755710553</v>
       </c>
       <c r="N13" t="n">
         <v>321.6852157022066</v>
@@ -35586,7 +35586,7 @@
         <v>225.4423413558468</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.71915277445987</v>
+        <v>84.7191527744599</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.54930229403001</v>
+        <v>87.54930229403004</v>
       </c>
       <c r="K16" t="n">
-        <v>248.0185452252833</v>
+        <v>248.0185452252834</v>
       </c>
       <c r="L16" t="n">
         <v>361.7282578511619</v>
@@ -35817,13 +35817,13 @@
         <v>386.8278318485039</v>
       </c>
       <c r="O16" t="n">
-        <v>344.3240159036035</v>
+        <v>344.3240159036036</v>
       </c>
       <c r="P16" t="n">
         <v>276.9279568260742</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.3651242188574</v>
+        <v>120.3651242188575</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36036,22 +36036,22 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.332299818266911</v>
+        <v>1.332299818266939</v>
       </c>
       <c r="J19" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>233.6111041328026</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230782</v>
+        <v>249.3676628272364</v>
       </c>
       <c r="O19" t="n">
         <v>236.9961840848623</v>
@@ -36063,7 +36063,7 @@
         <v>110.7360003882472</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057677</v>
+        <v>8.752567558057706</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36273,10 +36273,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K22" t="n">
         <v>196.988613427772</v>
@@ -36288,19 +36288,19 @@
         <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
-        <v>225.724764737241</v>
+        <v>215.6398973609177</v>
       </c>
       <c r="P22" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>109.6268955184479</v>
+        <v>98.35547617082767</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M25" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O25" t="n">
-        <v>216.9721971791832</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057677</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>14.13690477421522</v>
+        <v>14.13690477421505</v>
       </c>
       <c r="J26" t="n">
-        <v>330.4623251673266</v>
+        <v>246.5008355158535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9051211025416</v>
+        <v>392.9051211025414</v>
       </c>
       <c r="L26" t="n">
-        <v>511.3039489394731</v>
+        <v>511.303948939473</v>
       </c>
       <c r="M26" t="n">
-        <v>594.6349503773677</v>
+        <v>594.6349503773675</v>
       </c>
       <c r="N26" t="n">
-        <v>608.0156699600525</v>
+        <v>608.0156699600524</v>
       </c>
       <c r="O26" t="n">
-        <v>563.7668354353602</v>
+        <v>563.76683543536</v>
       </c>
       <c r="P26" t="n">
-        <v>454.4758207665128</v>
+        <v>454.4758207665127</v>
       </c>
       <c r="Q26" t="n">
-        <v>306.5081393508606</v>
+        <v>324.7532091293546</v>
       </c>
       <c r="R26" t="n">
-        <v>115.3270330893659</v>
+        <v>181.0434529623482</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.65600983748408</v>
+        <v>101.2922511602072</v>
       </c>
       <c r="K28" t="n">
-        <v>261.7614940914607</v>
+        <v>261.7614940914606</v>
       </c>
       <c r="L28" t="n">
-        <v>375.4712067173393</v>
+        <v>375.4712067173391</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8375530311793</v>
+        <v>224.8375530311792</v>
       </c>
       <c r="N28" t="n">
-        <v>400.5707807146812</v>
+        <v>366.5127958992635</v>
       </c>
       <c r="O28" t="n">
-        <v>358.066964769781</v>
+        <v>358.0669647697807</v>
       </c>
       <c r="P28" t="n">
-        <v>290.6709056922516</v>
+        <v>290.6709056922514</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.686329592336</v>
+        <v>134.1080730850347</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>14.13690477421522</v>
+        <v>14.13690477421505</v>
       </c>
       <c r="J29" t="n">
-        <v>246.5008355158537</v>
+        <v>330.4623251673299</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9051211025416</v>
+        <v>392.9051211025414</v>
       </c>
       <c r="L29" t="n">
-        <v>511.3039489394731</v>
+        <v>511.303948939473</v>
       </c>
       <c r="M29" t="n">
-        <v>594.6349503773677</v>
+        <v>594.6349503773675</v>
       </c>
       <c r="N29" t="n">
-        <v>608.0156699600525</v>
+        <v>608.0156699600524</v>
       </c>
       <c r="O29" t="n">
-        <v>563.7668354353602</v>
+        <v>563.76683543536</v>
       </c>
       <c r="P29" t="n">
-        <v>454.4758207665128</v>
+        <v>454.4758207665127</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.7532091293505</v>
+        <v>306.5081393508605</v>
       </c>
       <c r="R29" t="n">
-        <v>181.0434529623484</v>
+        <v>115.3270330893658</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2922511602074</v>
+        <v>67.65600983748391</v>
       </c>
       <c r="K31" t="n">
-        <v>261.7614940914607</v>
+        <v>155.017727746808</v>
       </c>
       <c r="L31" t="n">
-        <v>297.9101243065127</v>
+        <v>375.4712067173391</v>
       </c>
       <c r="M31" t="n">
-        <v>403.347213940625</v>
+        <v>403.3472139406248</v>
       </c>
       <c r="N31" t="n">
-        <v>400.5707807146812</v>
+        <v>400.5707807146811</v>
       </c>
       <c r="O31" t="n">
-        <v>358.066964769781</v>
+        <v>358.0669647697807</v>
       </c>
       <c r="P31" t="n">
-        <v>155.6643423782105</v>
+        <v>283.8262260125161</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.1080730850348</v>
+        <v>68.7651147072832</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>14.13690477421525</v>
+        <v>14.136904774215</v>
       </c>
       <c r="J32" t="n">
-        <v>246.5008355158537</v>
+        <v>330.4623251673306</v>
       </c>
       <c r="K32" t="n">
-        <v>476.8666107540137</v>
+        <v>392.9051211025413</v>
       </c>
       <c r="L32" t="n">
-        <v>511.3039489394732</v>
+        <v>511.3039489394729</v>
       </c>
       <c r="M32" t="n">
-        <v>594.6349503773678</v>
+        <v>594.6349503773674</v>
       </c>
       <c r="N32" t="n">
-        <v>608.0156699600525</v>
+        <v>608.0156699600523</v>
       </c>
       <c r="O32" t="n">
-        <v>563.7668354353602</v>
+        <v>563.76683543536</v>
       </c>
       <c r="P32" t="n">
-        <v>454.4758207665129</v>
+        <v>454.4758207665126</v>
       </c>
       <c r="Q32" t="n">
-        <v>306.5081393508607</v>
+        <v>306.5081393508604</v>
       </c>
       <c r="R32" t="n">
-        <v>115.327033089366</v>
+        <v>115.3270330893657</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2922511602074</v>
+        <v>67.65600983748382</v>
       </c>
       <c r="K34" t="n">
-        <v>261.7614940914607</v>
+        <v>155.017727746808</v>
       </c>
       <c r="L34" t="n">
-        <v>375.4712067173393</v>
+        <v>375.471206717339</v>
       </c>
       <c r="M34" t="n">
-        <v>403.347213940625</v>
+        <v>396.5025342608908</v>
       </c>
       <c r="N34" t="n">
-        <v>228.7530638702195</v>
+        <v>400.570780714681</v>
       </c>
       <c r="O34" t="n">
-        <v>317.3170358893743</v>
+        <v>358.0669647697807</v>
       </c>
       <c r="P34" t="n">
-        <v>290.6709056922516</v>
+        <v>290.6709056922513</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.1080730850348</v>
+        <v>68.76511470728315</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.56943736769814e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184477</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>196.9886134277718</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567485</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>266.808438712143</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511831</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O37" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
-        <v>186.3638087115562</v>
+        <v>186.3638087115539</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184477</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>185.7171940801535</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567485</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840382</v>
+        <v>255.5370193645231</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511831</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P40" t="n">
         <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.736000388247</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
-        <v>185.7171940801519</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848622</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882471</v>
+        <v>99.46458104062559</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.05300088822</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,22 +38178,22 @@
         <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567487</v>
+        <v>243.6959715091266</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>259.4525302035617</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
